--- a/Notebooks/AutomaModela Testing (Antworten).xlsx
+++ b/Notebooks/AutomaModela Testing (Antworten).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whyno\Entwickler\Python\AutomaModela\Notebooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94804827-3400-4BF3-9FA2-9A674611A7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-26235" yWindow="5115" windowWidth="21075" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formularantworten 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Formularantworten 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -172,18 +181,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -194,40 +204,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -417,26 +432,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="55" width="18.88"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="84" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="143" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="78" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="151.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="160.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="164.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="88" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="156.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="81" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="135.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="205.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="125.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="68" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="129.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="56" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,105 +635,108 @@
         <v>27</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AT1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44715.45679107639</v>
+        <v>44715.456791076387</v>
       </c>
       <c r="B2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="Y2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AK2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>34</v>
@@ -682,91 +753,92 @@
       <c r="AQ2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44715.566963715275</v>
       </c>
       <c r="B3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>42</v>
@@ -777,91 +849,92 @@
       <c r="AQ3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44715.840186076384</v>
       </c>
       <c r="B4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>42</v>
@@ -872,91 +945,92 @@
       <c r="AQ4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44716.7655515625</v>
+        <v>44716.765551562501</v>
       </c>
       <c r="B5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AK5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AM5" s="3" t="s">
         <v>34</v>
@@ -967,88 +1041,89 @@
       <c r="AQ5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AW5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44718.590907025464</v>
       </c>
       <c r="B6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AM6" s="3" t="s">
         <v>36</v>
@@ -1059,97 +1134,98 @@
       <c r="AQ6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AT6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AU6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="AW6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="AX6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44718.94970590278</v>
+        <v>44718.949705902778</v>
       </c>
       <c r="B7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="W7" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="3" t="s">
         <v>36</v>
@@ -1163,17 +1239,18 @@
       <c r="AQ7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AU7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="3" t="s">
+      <c r="AW7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>